--- a/data/case1/5/Q1_2.xlsx
+++ b/data/case1/5/Q1_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.30919710729772731</v>
+        <v>0.17413792331684164</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.005999999930494937</v>
+        <v>-0.0059999999546711535</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999335691427</v>
+        <v>-0.0039999999594417801</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998827986474</v>
+        <v>-0.0079999999258983934</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999305871938</v>
+        <v>-0.0029999999577299263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999255908563</v>
+        <v>0.052352782022124345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998404158852</v>
+        <v>-0.0099999998952768898</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998416038238</v>
+        <v>-0.052095558227846617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999333184526</v>
+        <v>-0.0019999999535080804</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999385387213</v>
+        <v>-0.0019999999569364491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999281233869</v>
+        <v>0.047969206781237617</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.02035945262798311</v>
+        <v>-0.0034999999444065288</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999263751747</v>
+        <v>-0.0034999999402502979</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998788951032</v>
+        <v>-0.0079999999064597205</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999995681976372</v>
+        <v>-0.00099999995684285636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.01967114637039824</v>
+        <v>-0.0019999999489197506</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999476496555</v>
+        <v>-0.0019999999480448949</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999256137286</v>
+        <v>-0.0039999999331978842</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.042503584759203239</v>
+        <v>-0.0039999999689812604</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.003999999930613285</v>
+        <v>-0.0039999999665436548</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999261786101</v>
+        <v>-0.0039999999661759489</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.049049995073216834</v>
+        <v>-0.0039999999659006136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999159355824</v>
+        <v>-0.0049999999495131675</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999739618524</v>
+        <v>-0.019999999836064042</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.049896984598253979</v>
+        <v>-0.019999999833713034</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999186068322</v>
+        <v>-0.0024999999488084512</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999135304485</v>
+        <v>-0.0024999999455777022</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999998972011213</v>
+        <v>-0.0019999999335871266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998282410658</v>
+        <v>-0.0069999998868199853</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999243807167</v>
+        <v>-0.059999999495193634</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998157825871</v>
+        <v>-0.0069999998776797412</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999997825594988</v>
+        <v>-0.0099999998553048641</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999998477480148</v>
+        <v>-0.0039999998988697882</v>
       </c>
     </row>
   </sheetData>
